--- a/QVTQO8_0316/QVTQO8gya6.xlsx
+++ b/QVTQO8_0316/QVTQO8gya6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Egyetem\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFD80594-1BAB-4740-A672-67C6711F586A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D597ED6A-72C1-4B4B-B32C-D4108B3D8079}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14130" yWindow="2745" windowWidth="21600" windowHeight="11385" xr2:uid="{1F2F6858-A90D-4DE3-B5D6-0AF6B412E19A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F2F6858-A90D-4DE3-B5D6-0AF6B412E19A}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
   <si>
     <t>Érkezés</t>
   </si>
@@ -59,12 +59,66 @@
   <si>
     <t>2.fealdat</t>
   </si>
+  <si>
+    <t>Befejezési idő:</t>
+  </si>
+  <si>
+    <t>Átlag várakozás:</t>
+  </si>
+  <si>
+    <t>SJF</t>
+  </si>
+  <si>
+    <t>RR (10ms)</t>
+  </si>
+  <si>
+    <t>Processz</t>
+  </si>
+  <si>
+    <t>P2,P1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>P1,P3</t>
+  </si>
+  <si>
+    <t>P1*</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>P3,P4</t>
+  </si>
+  <si>
+    <t>P4,P3</t>
+  </si>
+  <si>
+    <t>P3*</t>
+  </si>
+  <si>
+    <t>[42]</t>
+  </si>
+  <si>
+    <t>[52]</t>
+  </si>
+  <si>
+    <t>Várak.idő</t>
+  </si>
+  <si>
+    <t>Maradek.idő</t>
+  </si>
+  <si>
+    <t>Váró pro.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,8 +143,31 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +190,11 @@
       <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -151,23 +233,67 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál 2" xfId="2" xr:uid="{6998ECB8-3543-4436-AB94-92FF3F63242B}"/>
+    <cellStyle name="Rossz" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -479,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9F2C34-5C47-4626-9ADC-0DB13238505C}">
-  <dimension ref="A1:CF27"/>
+  <dimension ref="A1:CF41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:H27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BZ30" sqref="BZ30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,6 +617,7 @@
     <col min="13" max="45" width="3.85546875" customWidth="1"/>
     <col min="46" max="65" width="3.7109375" customWidth="1"/>
     <col min="66" max="76" width="4.28515625" customWidth="1"/>
+    <col min="77" max="84" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:84" x14ac:dyDescent="0.25">
@@ -686,36 +813,6 @@
       <c r="BV1">
         <v>58</v>
       </c>
-      <c r="BW1">
-        <v>59</v>
-      </c>
-      <c r="BX1">
-        <v>60</v>
-      </c>
-      <c r="BY1">
-        <v>61</v>
-      </c>
-      <c r="BZ1">
-        <v>62</v>
-      </c>
-      <c r="CA1">
-        <v>63</v>
-      </c>
-      <c r="CB1">
-        <v>64</v>
-      </c>
-      <c r="CC1">
-        <v>65</v>
-      </c>
-      <c r="CD1">
-        <v>66</v>
-      </c>
-      <c r="CE1">
-        <v>67</v>
-      </c>
-      <c r="CF1">
-        <v>68</v>
-      </c>
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -733,64 +830,64 @@
       <c r="E2" s="1">
         <v>20</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
-      <c r="AV2" s="7"/>
-      <c r="AW2" s="7"/>
-      <c r="AX2" s="7"/>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="7"/>
-      <c r="BA2" s="7"/>
-      <c r="BB2" s="7"/>
-      <c r="BC2" s="7"/>
-      <c r="BD2" s="7"/>
-      <c r="BE2" s="7"/>
-      <c r="BF2" s="7"/>
-      <c r="BG2" s="7"/>
-      <c r="BH2" s="7"/>
-      <c r="BI2" s="7"/>
-      <c r="BJ2" s="7"/>
-      <c r="BK2" s="7"/>
-      <c r="BL2" s="7"/>
-      <c r="BM2" s="7"/>
-      <c r="BN2" s="7"/>
-      <c r="BO2" s="7"/>
-      <c r="BP2" s="7"/>
-      <c r="BQ2" s="7"/>
-      <c r="BR2" s="7"/>
-      <c r="BS2" s="7"/>
-      <c r="BT2" s="7"/>
-      <c r="BU2" s="7"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="22"/>
+      <c r="AY2" s="22"/>
+      <c r="AZ2" s="22"/>
+      <c r="BA2" s="22"/>
+      <c r="BB2" s="22"/>
+      <c r="BC2" s="22"/>
+      <c r="BD2" s="22"/>
+      <c r="BE2" s="22"/>
+      <c r="BF2" s="22"/>
+      <c r="BG2" s="22"/>
+      <c r="BH2" s="22"/>
+      <c r="BI2" s="22"/>
+      <c r="BJ2" s="22"/>
+      <c r="BK2" s="22"/>
+      <c r="BL2" s="22"/>
+      <c r="BM2" s="22"/>
+      <c r="BN2" s="22"/>
+      <c r="BO2" s="22"/>
+      <c r="BP2" s="22"/>
+      <c r="BQ2" s="22"/>
+      <c r="BR2" s="22"/>
+      <c r="BS2" s="22"/>
+      <c r="BT2" s="22"/>
+      <c r="BU2" s="22"/>
     </row>
     <row r="3" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -808,20 +905,64 @@
       <c r="E3" s="1">
         <v>10</v>
       </c>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BT3" s="1"/>
+      <c r="BU3" s="1"/>
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -839,43 +980,64 @@
       <c r="E4" s="1">
         <v>48</v>
       </c>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AO4" s="6"/>
-      <c r="AP4" s="6"/>
-      <c r="AQ4" s="6"/>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="6"/>
-      <c r="AT4" s="6"/>
-      <c r="AU4" s="6"/>
-      <c r="AV4" s="6"/>
-      <c r="AW4" s="6"/>
-      <c r="AX4" s="6"/>
-      <c r="AY4" s="6"/>
-      <c r="AZ4" s="6"/>
-      <c r="BA4" s="6"/>
-      <c r="BB4" s="6"/>
-      <c r="BC4" s="6"/>
-      <c r="BD4" s="6"/>
-      <c r="BE4" s="6"/>
-      <c r="BF4" s="6"/>
-      <c r="BG4" s="6"/>
-      <c r="BH4" s="6"/>
-      <c r="BI4" s="6"/>
-      <c r="BJ4" s="6"/>
-      <c r="BK4" s="6"/>
-      <c r="BL4" s="7"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="19"/>
+      <c r="AO4" s="19"/>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="19"/>
+      <c r="AT4" s="19"/>
+      <c r="AU4" s="19"/>
+      <c r="AV4" s="19"/>
+      <c r="AW4" s="19"/>
+      <c r="AX4" s="19"/>
+      <c r="AY4" s="19"/>
+      <c r="AZ4" s="19"/>
+      <c r="BA4" s="19"/>
+      <c r="BB4" s="19"/>
+      <c r="BC4" s="19"/>
+      <c r="BD4" s="19"/>
+      <c r="BE4" s="19"/>
+      <c r="BF4" s="19"/>
+      <c r="BG4" s="19"/>
+      <c r="BH4" s="19"/>
+      <c r="BI4" s="19"/>
+      <c r="BJ4" s="19"/>
+      <c r="BK4" s="19"/>
+      <c r="BL4" s="22"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BT4" s="1"/>
+      <c r="BU4" s="1"/>
     </row>
     <row r="5" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -893,44 +1055,64 @@
       <c r="E5" s="1">
         <v>58</v>
       </c>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
-      <c r="AS5" s="5"/>
-      <c r="AT5" s="5"/>
-      <c r="AU5" s="5"/>
-      <c r="AV5" s="5"/>
-      <c r="AW5" s="5"/>
-      <c r="AX5" s="5"/>
-      <c r="AY5" s="5"/>
-      <c r="AZ5" s="5"/>
-      <c r="BA5" s="5"/>
-      <c r="BB5" s="5"/>
-      <c r="BC5" s="5"/>
-      <c r="BD5" s="5"/>
-      <c r="BE5" s="5"/>
-      <c r="BF5" s="5"/>
-      <c r="BG5" s="5"/>
-      <c r="BH5" s="5"/>
-      <c r="BI5" s="5"/>
-      <c r="BJ5" s="5"/>
-      <c r="BK5" s="5"/>
-      <c r="BL5" s="6"/>
-      <c r="BM5" s="6"/>
-      <c r="BN5" s="6"/>
-      <c r="BO5" s="6"/>
-      <c r="BP5" s="6"/>
-      <c r="BQ5" s="6"/>
-      <c r="BR5" s="6"/>
-      <c r="BS5" s="6"/>
-      <c r="BT5" s="6"/>
-      <c r="BU5" s="6"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="23"/>
+      <c r="AK5" s="23"/>
+      <c r="AL5" s="23"/>
+      <c r="AM5" s="23"/>
+      <c r="AN5" s="23"/>
+      <c r="AO5" s="23"/>
+      <c r="AP5" s="23"/>
+      <c r="AQ5" s="23"/>
+      <c r="AR5" s="23"/>
+      <c r="AS5" s="23"/>
+      <c r="AT5" s="23"/>
+      <c r="AU5" s="23"/>
+      <c r="AV5" s="23"/>
+      <c r="AW5" s="23"/>
+      <c r="AX5" s="23"/>
+      <c r="AY5" s="23"/>
+      <c r="AZ5" s="23"/>
+      <c r="BA5" s="23"/>
+      <c r="BB5" s="23"/>
+      <c r="BC5" s="23"/>
+      <c r="BD5" s="23"/>
+      <c r="BE5" s="23"/>
+      <c r="BF5" s="23"/>
+      <c r="BG5" s="23"/>
+      <c r="BH5" s="23"/>
+      <c r="BI5" s="23"/>
+      <c r="BJ5" s="23"/>
+      <c r="BK5" s="23"/>
+      <c r="BL5" s="19"/>
+      <c r="BM5" s="19"/>
+      <c r="BN5" s="19"/>
+      <c r="BO5" s="19"/>
+      <c r="BP5" s="19"/>
+      <c r="BQ5" s="19"/>
+      <c r="BR5" s="19"/>
+      <c r="BS5" s="19"/>
+      <c r="BT5" s="19"/>
+      <c r="BU5" s="19"/>
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -970,6 +1152,36 @@
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="BW9">
+        <v>59</v>
+      </c>
+      <c r="BX9">
+        <v>60</v>
+      </c>
+      <c r="BY9">
+        <v>61</v>
+      </c>
+      <c r="BZ9">
+        <v>62</v>
+      </c>
+      <c r="CA9">
+        <v>63</v>
+      </c>
+      <c r="CB9">
+        <v>64</v>
+      </c>
+      <c r="CC9">
+        <v>65</v>
+      </c>
+      <c r="CD9">
+        <v>66</v>
+      </c>
+      <c r="CE9">
+        <v>67</v>
+      </c>
+      <c r="CF9">
+        <v>68</v>
+      </c>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -987,29 +1199,75 @@
       <c r="E10" s="1">
         <v>20</v>
       </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="1"/>
+      <c r="BI10" s="1"/>
+      <c r="BJ10" s="1"/>
+      <c r="BK10" s="1"/>
+      <c r="BL10" s="1"/>
+      <c r="BM10" s="1"/>
+      <c r="BN10" s="1"/>
+      <c r="BO10" s="1"/>
+      <c r="BP10" s="1"/>
+      <c r="BQ10" s="1"/>
+      <c r="BR10" s="1"/>
+      <c r="BS10" s="1"/>
+      <c r="BT10" s="1"/>
+      <c r="BU10" s="1"/>
+      <c r="BV10" s="1"/>
+      <c r="BW10" s="1"/>
+      <c r="BX10" s="1"/>
+      <c r="BY10" s="1"/>
+      <c r="BZ10" s="1"/>
+      <c r="CA10" s="1"/>
+      <c r="CB10" s="1"/>
+      <c r="CC10" s="1"/>
+      <c r="CD10" s="1"/>
+      <c r="CE10" s="1"/>
+      <c r="CF10" s="1"/>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1027,21 +1285,75 @@
       <c r="E11" s="1">
         <v>10</v>
       </c>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="6"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="6"/>
-      <c r="AK11" s="6"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="1"/>
+      <c r="BK11" s="1"/>
+      <c r="BL11" s="1"/>
+      <c r="BM11" s="1"/>
+      <c r="BN11" s="1"/>
+      <c r="BO11" s="1"/>
+      <c r="BP11" s="1"/>
+      <c r="BQ11" s="1"/>
+      <c r="BR11" s="1"/>
+      <c r="BS11" s="1"/>
+      <c r="BT11" s="1"/>
+      <c r="BU11" s="1"/>
+      <c r="BV11" s="1"/>
+      <c r="BW11" s="1"/>
+      <c r="BX11" s="1"/>
+      <c r="BY11" s="1"/>
+      <c r="BZ11" s="1"/>
+      <c r="CA11" s="1"/>
+      <c r="CB11" s="1"/>
+      <c r="CC11" s="1"/>
+      <c r="CD11" s="1"/>
+      <c r="CE11" s="1"/>
+      <c r="CF11" s="1"/>
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1059,53 +1371,75 @@
       <c r="E12" s="1">
         <v>58</v>
       </c>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="6"/>
-      <c r="AM12" s="6"/>
-      <c r="AN12" s="6"/>
-      <c r="AO12" s="6"/>
-      <c r="AP12" s="6"/>
-      <c r="AQ12" s="6"/>
-      <c r="AR12" s="6"/>
-      <c r="AS12" s="6"/>
-      <c r="AT12" s="6"/>
-      <c r="AU12" s="6"/>
-      <c r="AV12" s="6"/>
-      <c r="AW12" s="6"/>
-      <c r="AX12" s="6"/>
-      <c r="AY12" s="6"/>
-      <c r="AZ12" s="6"/>
-      <c r="BA12" s="6"/>
-      <c r="BB12" s="6"/>
-      <c r="BC12" s="6"/>
-      <c r="BD12" s="6"/>
-      <c r="BE12" s="6"/>
-      <c r="BF12" s="6"/>
-      <c r="BG12" s="6"/>
-      <c r="BH12" s="6"/>
-      <c r="BI12" s="6"/>
-      <c r="BJ12" s="6"/>
-      <c r="BK12" s="6"/>
-      <c r="BL12" s="6"/>
-      <c r="BM12" s="6"/>
-      <c r="BN12" s="6"/>
-      <c r="BO12" s="6"/>
-      <c r="BP12" s="6"/>
-      <c r="BQ12" s="6"/>
-      <c r="BR12" s="6"/>
-      <c r="BS12" s="6"/>
-      <c r="BT12" s="6"/>
-      <c r="BU12" s="6"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="23"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="23"/>
+      <c r="AJ12" s="23"/>
+      <c r="AK12" s="23"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="19"/>
+      <c r="AP12" s="19"/>
+      <c r="AQ12" s="19"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="19"/>
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="19"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="19"/>
+      <c r="AZ12" s="19"/>
+      <c r="BA12" s="19"/>
+      <c r="BB12" s="19"/>
+      <c r="BC12" s="19"/>
+      <c r="BD12" s="19"/>
+      <c r="BE12" s="19"/>
+      <c r="BF12" s="19"/>
+      <c r="BG12" s="19"/>
+      <c r="BH12" s="19"/>
+      <c r="BI12" s="19"/>
+      <c r="BJ12" s="19"/>
+      <c r="BK12" s="19"/>
+      <c r="BL12" s="19"/>
+      <c r="BM12" s="19"/>
+      <c r="BN12" s="19"/>
+      <c r="BO12" s="19"/>
+      <c r="BP12" s="19"/>
+      <c r="BQ12" s="19"/>
+      <c r="BR12" s="19"/>
+      <c r="BS12" s="19"/>
+      <c r="BT12" s="19"/>
+      <c r="BU12" s="19"/>
+      <c r="BV12" s="1"/>
+      <c r="BW12" s="1"/>
+      <c r="BX12" s="1"/>
+      <c r="BY12" s="1"/>
+      <c r="BZ12" s="1"/>
+      <c r="CA12" s="1"/>
+      <c r="CB12" s="1"/>
+      <c r="CC12" s="1"/>
+      <c r="CD12" s="1"/>
+      <c r="CE12" s="1"/>
+      <c r="CF12" s="1"/>
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1123,54 +1457,75 @@
       <c r="E13" s="1">
         <v>68</v>
       </c>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
-      <c r="AP13" s="5"/>
-      <c r="AQ13" s="5"/>
-      <c r="AR13" s="5"/>
-      <c r="AS13" s="5"/>
-      <c r="AT13" s="5"/>
-      <c r="AU13" s="5"/>
-      <c r="AV13" s="5"/>
-      <c r="AW13" s="5"/>
-      <c r="AX13" s="5"/>
-      <c r="AY13" s="5"/>
-      <c r="AZ13" s="5"/>
-      <c r="BA13" s="5"/>
-      <c r="BB13" s="5"/>
-      <c r="BC13" s="5"/>
-      <c r="BD13" s="5"/>
-      <c r="BE13" s="5"/>
-      <c r="BF13" s="5"/>
-      <c r="BG13" s="5"/>
-      <c r="BH13" s="5"/>
-      <c r="BI13" s="5"/>
-      <c r="BJ13" s="5"/>
-      <c r="BK13" s="5"/>
-      <c r="BL13" s="5"/>
-      <c r="BM13" s="5"/>
-      <c r="BN13" s="5"/>
-      <c r="BO13" s="5"/>
-      <c r="BP13" s="5"/>
-      <c r="BQ13" s="5"/>
-      <c r="BR13" s="5"/>
-      <c r="BS13" s="5"/>
-      <c r="BT13" s="5"/>
-      <c r="BU13" s="5"/>
-      <c r="BV13" s="6"/>
-      <c r="BW13" s="6"/>
-      <c r="BX13" s="6"/>
-      <c r="BY13" s="6"/>
-      <c r="BZ13" s="6"/>
-      <c r="CA13" s="6"/>
-      <c r="CB13" s="6"/>
-      <c r="CC13" s="6"/>
-      <c r="CD13" s="6"/>
-      <c r="CE13" s="6"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="23"/>
+      <c r="AK13" s="23"/>
+      <c r="AL13" s="23"/>
+      <c r="AM13" s="23"/>
+      <c r="AN13" s="23"/>
+      <c r="AO13" s="23"/>
+      <c r="AP13" s="23"/>
+      <c r="AQ13" s="23"/>
+      <c r="AR13" s="23"/>
+      <c r="AS13" s="23"/>
+      <c r="AT13" s="23"/>
+      <c r="AU13" s="23"/>
+      <c r="AV13" s="23"/>
+      <c r="AW13" s="23"/>
+      <c r="AX13" s="23"/>
+      <c r="AY13" s="23"/>
+      <c r="AZ13" s="23"/>
+      <c r="BA13" s="23"/>
+      <c r="BB13" s="23"/>
+      <c r="BC13" s="23"/>
+      <c r="BD13" s="23"/>
+      <c r="BE13" s="23"/>
+      <c r="BF13" s="23"/>
+      <c r="BG13" s="23"/>
+      <c r="BH13" s="23"/>
+      <c r="BI13" s="23"/>
+      <c r="BJ13" s="23"/>
+      <c r="BK13" s="23"/>
+      <c r="BL13" s="23"/>
+      <c r="BM13" s="23"/>
+      <c r="BN13" s="23"/>
+      <c r="BO13" s="23"/>
+      <c r="BP13" s="23"/>
+      <c r="BQ13" s="23"/>
+      <c r="BR13" s="23"/>
+      <c r="BS13" s="23"/>
+      <c r="BT13" s="23"/>
+      <c r="BU13" s="23"/>
+      <c r="BV13" s="19"/>
+      <c r="BW13" s="19"/>
+      <c r="BX13" s="19"/>
+      <c r="BY13" s="19"/>
+      <c r="BZ13" s="19"/>
+      <c r="CA13" s="19"/>
+      <c r="CB13" s="19"/>
+      <c r="CC13" s="19"/>
+      <c r="CD13" s="19"/>
+      <c r="CE13" s="19"/>
+      <c r="CF13" s="1"/>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1188,111 +1543,1656 @@
       <c r="E14" s="1">
         <v>38</v>
       </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="1"/>
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="1"/>
+      <c r="BJ14" s="1"/>
+      <c r="BK14" s="1"/>
+      <c r="BL14" s="1"/>
+      <c r="BM14" s="1"/>
+      <c r="BN14" s="1"/>
+      <c r="BO14" s="1"/>
+      <c r="BP14" s="1"/>
+      <c r="BQ14" s="1"/>
+      <c r="BR14" s="1"/>
+      <c r="BS14" s="1"/>
+      <c r="BT14" s="1"/>
+      <c r="BU14" s="1"/>
+      <c r="BV14" s="1"/>
+      <c r="BW14" s="1"/>
+      <c r="BX14" s="1"/>
+      <c r="BY14" s="1"/>
+      <c r="BZ14" s="1"/>
+      <c r="CA14" s="1"/>
+      <c r="CB14" s="1"/>
+      <c r="CC14" s="1"/>
+      <c r="CD14" s="1"/>
+      <c r="CE14" s="1"/>
+      <c r="CF14" s="1"/>
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.25">
       <c r="E15" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="1"/>
+      <c r="BL15" s="1"/>
+      <c r="BM15" s="1"/>
+      <c r="BN15" s="1"/>
+      <c r="BO15" s="1"/>
+      <c r="BP15" s="1"/>
+      <c r="BQ15" s="1"/>
+      <c r="BR15" s="1"/>
+      <c r="BS15" s="1"/>
+      <c r="BT15" s="1"/>
+      <c r="BU15" s="1"/>
+      <c r="BV15" s="1"/>
+      <c r="BW15" s="1"/>
+      <c r="BX15" s="1"/>
+      <c r="BY15" s="1"/>
+      <c r="BZ15" s="1"/>
+      <c r="CA15" s="1"/>
+      <c r="CB15" s="1"/>
+      <c r="CC15" s="1"/>
+      <c r="CD15" s="1"/>
+      <c r="CE15" s="1"/>
+      <c r="CF15" s="1"/>
+    </row>
+    <row r="18" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="P18" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>1</v>
+      </c>
+      <c r="R18" s="11">
+        <v>2</v>
+      </c>
+      <c r="S18" s="11">
+        <v>3</v>
+      </c>
+      <c r="T18" s="11">
+        <v>4</v>
+      </c>
+      <c r="U18" s="11">
+        <v>5</v>
+      </c>
+      <c r="V18" s="11">
+        <v>6</v>
+      </c>
+      <c r="W18" s="11">
+        <v>7</v>
+      </c>
+      <c r="X18" s="11">
+        <v>8</v>
+      </c>
+      <c r="Y18" s="11">
+        <v>9</v>
+      </c>
+      <c r="Z18" s="11">
+        <v>10</v>
+      </c>
+      <c r="AA18" s="11">
+        <v>11</v>
+      </c>
+      <c r="AB18" s="11">
+        <v>12</v>
+      </c>
+      <c r="AC18" s="11">
+        <v>13</v>
+      </c>
+      <c r="AD18" s="11">
+        <v>14</v>
+      </c>
+      <c r="AE18" s="11">
+        <v>15</v>
+      </c>
+      <c r="AF18" s="11">
+        <v>16</v>
+      </c>
+      <c r="AG18" s="11">
+        <v>17</v>
+      </c>
+      <c r="AH18" s="11">
+        <v>18</v>
+      </c>
+      <c r="AI18" s="11">
+        <v>19</v>
+      </c>
+      <c r="AJ18" s="11">
+        <v>20</v>
+      </c>
+      <c r="AK18" s="11">
+        <v>21</v>
+      </c>
+      <c r="AL18" s="11">
+        <v>22</v>
+      </c>
+      <c r="AM18" s="11">
+        <v>23</v>
+      </c>
+      <c r="AN18" s="11">
+        <v>24</v>
+      </c>
+      <c r="AO18" s="11">
+        <v>25</v>
+      </c>
+      <c r="AP18" s="11">
+        <v>26</v>
+      </c>
+      <c r="AQ18" s="11">
+        <v>27</v>
+      </c>
+      <c r="AR18" s="11">
+        <v>28</v>
+      </c>
+      <c r="AS18" s="11">
+        <v>29</v>
+      </c>
+      <c r="AT18" s="11">
+        <v>30</v>
+      </c>
+      <c r="AU18" s="11">
+        <v>31</v>
+      </c>
+      <c r="AV18" s="11">
+        <v>32</v>
+      </c>
+      <c r="AW18" s="11">
+        <v>33</v>
+      </c>
+      <c r="AX18" s="11">
+        <v>34</v>
+      </c>
+      <c r="AY18" s="11">
+        <v>35</v>
+      </c>
+      <c r="AZ18" s="11">
+        <v>36</v>
+      </c>
+      <c r="BA18" s="11">
+        <v>37</v>
+      </c>
+      <c r="BB18" s="11">
+        <v>38</v>
+      </c>
+      <c r="BC18" s="11">
+        <v>39</v>
+      </c>
+      <c r="BD18" s="11">
+        <v>40</v>
+      </c>
+      <c r="BE18" s="11">
+        <v>41</v>
+      </c>
+      <c r="BF18" s="11">
+        <v>42</v>
+      </c>
+      <c r="BG18" s="11">
+        <v>43</v>
+      </c>
+      <c r="BH18" s="11">
+        <v>44</v>
+      </c>
+      <c r="BI18" s="11">
+        <v>45</v>
+      </c>
+      <c r="BJ18" s="11">
+        <v>46</v>
+      </c>
+      <c r="BK18" s="11">
+        <v>47</v>
+      </c>
+      <c r="BL18" s="11">
+        <v>48</v>
+      </c>
+      <c r="BM18" s="11">
+        <v>49</v>
+      </c>
+      <c r="BN18" s="11">
+        <v>50</v>
+      </c>
+      <c r="BO18" s="11">
+        <v>51</v>
+      </c>
+      <c r="BP18" s="11">
+        <v>52</v>
+      </c>
+      <c r="BQ18" s="11">
+        <v>53</v>
+      </c>
+      <c r="BR18" s="11">
+        <v>54</v>
+      </c>
+      <c r="BS18" s="11">
+        <v>55</v>
+      </c>
+      <c r="BT18" s="11">
+        <v>56</v>
+      </c>
+      <c r="BU18" s="11">
+        <v>57</v>
+      </c>
+      <c r="BV18" s="11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>8</v>
+      </c>
+      <c r="D19" s="4">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4">
+        <v>20</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="13"/>
+      <c r="AL19" s="13"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="13"/>
+      <c r="AO19" s="13"/>
+      <c r="AP19" s="13"/>
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="13"/>
+      <c r="AS19" s="13"/>
+      <c r="AT19" s="13"/>
+      <c r="AU19" s="13"/>
+      <c r="AV19" s="13"/>
+      <c r="AW19" s="13"/>
+      <c r="AX19" s="13"/>
+      <c r="AY19" s="13"/>
+      <c r="AZ19" s="13"/>
+      <c r="BA19" s="13"/>
+      <c r="BB19" s="13"/>
+      <c r="BC19" s="13"/>
+      <c r="BD19" s="13"/>
+      <c r="BE19" s="13"/>
+      <c r="BF19" s="13"/>
+      <c r="BG19" s="13"/>
+      <c r="BH19" s="13"/>
+      <c r="BI19" s="13"/>
+      <c r="BJ19" s="13"/>
+      <c r="BK19" s="13"/>
+      <c r="BL19" s="13"/>
+      <c r="BM19" s="13"/>
+      <c r="BN19" s="13"/>
+      <c r="BO19" s="13"/>
+      <c r="BP19" s="13"/>
+      <c r="BQ19" s="13"/>
+      <c r="BR19" s="13"/>
+      <c r="BS19" s="13"/>
+      <c r="BT19" s="13"/>
+      <c r="BU19" s="13"/>
+      <c r="BV19" s="13"/>
+    </row>
+    <row r="20" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4">
+        <v>26</v>
+      </c>
+      <c r="E20" s="4">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="17"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" s="17"/>
+      <c r="AO20" s="17"/>
+      <c r="AP20" s="17"/>
+      <c r="AQ20" s="17"/>
+      <c r="AR20" s="17"/>
+      <c r="AS20" s="17"/>
+      <c r="AT20" s="17"/>
+      <c r="AU20" s="17"/>
+      <c r="AV20" s="17"/>
+      <c r="AW20" s="17"/>
+      <c r="AX20" s="17"/>
+      <c r="AY20" s="17"/>
+      <c r="AZ20" s="17"/>
+      <c r="BA20" s="17"/>
+      <c r="BB20" s="17"/>
+      <c r="BC20" s="17"/>
+      <c r="BD20" s="17"/>
+      <c r="BE20" s="17"/>
+      <c r="BF20" s="17"/>
+      <c r="BG20" s="17"/>
+      <c r="BH20" s="17"/>
+      <c r="BI20" s="17"/>
+      <c r="BJ20" s="17"/>
+      <c r="BK20" s="17"/>
+      <c r="BL20" s="14"/>
+      <c r="BM20" s="14"/>
+      <c r="BN20" s="14"/>
+      <c r="BO20" s="14"/>
+      <c r="BP20" s="14"/>
+      <c r="BQ20" s="14"/>
+      <c r="BR20" s="14"/>
+      <c r="BS20" s="14"/>
+      <c r="BT20" s="14"/>
+      <c r="BU20" s="14"/>
+      <c r="BV20" s="14"/>
+    </row>
+    <row r="21" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4">
+        <v>32</v>
+      </c>
+      <c r="E21" s="4">
+        <v>22</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15"/>
+      <c r="AN21" s="15"/>
+      <c r="AO21" s="15"/>
+      <c r="AP21" s="15"/>
+      <c r="AQ21" s="15"/>
+      <c r="AR21" s="15"/>
+      <c r="AS21" s="15"/>
+      <c r="AT21" s="15"/>
+      <c r="AU21" s="15"/>
+      <c r="AV21" s="15"/>
+      <c r="AW21" s="16"/>
+      <c r="AX21" s="16"/>
+      <c r="AY21" s="16"/>
+      <c r="AZ21" s="16"/>
+      <c r="BA21" s="16"/>
+      <c r="BB21" s="16"/>
+      <c r="BC21" s="16"/>
+      <c r="BD21" s="16"/>
+      <c r="BE21" s="16"/>
+      <c r="BF21" s="16"/>
+      <c r="BG21" s="16"/>
+      <c r="BH21" s="16"/>
+      <c r="BI21" s="16"/>
+      <c r="BJ21" s="16"/>
+      <c r="BK21" s="16"/>
+      <c r="BL21" s="16"/>
+      <c r="BM21" s="9"/>
+      <c r="BN21" s="9"/>
+      <c r="BO21" s="9"/>
+      <c r="BP21" s="9"/>
+      <c r="BQ21" s="9"/>
+      <c r="BR21" s="9"/>
+      <c r="BS21" s="9"/>
+      <c r="BT21" s="9"/>
+      <c r="BU21" s="9"/>
+      <c r="BV21" s="14"/>
+    </row>
+    <row r="22" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5">
+        <v>15</v>
+      </c>
+      <c r="C22" s="5">
+        <v>22</v>
+      </c>
+      <c r="D22" s="5">
+        <v>58</v>
+      </c>
+      <c r="E22" s="4">
+        <v>32</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="4">
+        <v>58</v>
+      </c>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="18"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="9"/>
+      <c r="AM22" s="9"/>
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="9"/>
+      <c r="AP22" s="9"/>
+      <c r="AQ22" s="9"/>
+      <c r="AR22" s="9"/>
+      <c r="AS22" s="9"/>
+      <c r="AT22" s="9"/>
+      <c r="AU22" s="9"/>
+      <c r="AV22" s="14"/>
+      <c r="AW22" s="14"/>
+      <c r="AX22" s="14"/>
+      <c r="AY22" s="14"/>
+      <c r="AZ22" s="14"/>
+      <c r="BA22" s="14"/>
+      <c r="BB22" s="14"/>
+      <c r="BC22" s="14"/>
+      <c r="BD22" s="14"/>
+      <c r="BE22" s="14"/>
+      <c r="BF22" s="14"/>
+      <c r="BG22" s="14"/>
+      <c r="BH22" s="14"/>
+      <c r="BI22" s="14"/>
+      <c r="BJ22" s="14"/>
+      <c r="BK22" s="14"/>
+      <c r="BL22" s="17"/>
+      <c r="BM22" s="17"/>
+      <c r="BN22" s="17"/>
+      <c r="BO22" s="17"/>
+      <c r="BP22" s="17"/>
+      <c r="BQ22" s="17"/>
+      <c r="BR22" s="17"/>
+      <c r="BS22" s="17"/>
+      <c r="BT22" s="17"/>
+      <c r="BU22" s="17"/>
+      <c r="BV22" s="17"/>
+    </row>
+    <row r="23" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>7</v>
+      </c>
+      <c r="D23" s="5">
+        <v>20</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="1"/>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="1"/>
+      <c r="BD23" s="1"/>
+      <c r="BE23" s="1"/>
+      <c r="BF23" s="1"/>
+      <c r="BG23" s="1"/>
+      <c r="BH23" s="1"/>
+      <c r="BI23" s="1"/>
+      <c r="BJ23" s="1"/>
+      <c r="BK23" s="1"/>
+      <c r="BL23" s="1"/>
+      <c r="BM23" s="1"/>
+      <c r="BN23" s="1"/>
+      <c r="BO23" s="1"/>
+      <c r="BP23" s="1"/>
+      <c r="BQ23" s="1"/>
+      <c r="BR23" s="1"/>
+      <c r="BS23" s="1"/>
+      <c r="BT23" s="1"/>
+      <c r="BU23" s="1"/>
+      <c r="BV23" s="1"/>
+    </row>
+    <row r="24" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="4">
+        <v>7.25</v>
+      </c>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="10"/>
+      <c r="AQ24" s="10"/>
+      <c r="AR24" s="10"/>
+      <c r="AS24" s="10"/>
+      <c r="AT24" s="10"/>
+      <c r="AU24" s="10"/>
+      <c r="AV24" s="10"/>
+      <c r="AW24" s="10"/>
+      <c r="AX24" s="10"/>
+      <c r="AY24" s="10"/>
+      <c r="AZ24" s="10"/>
+      <c r="BA24" s="10"/>
+      <c r="BB24" s="10"/>
+      <c r="BC24" s="10"/>
+      <c r="BD24" s="10"/>
+      <c r="BE24" s="10"/>
+      <c r="BF24" s="10"/>
+      <c r="BG24" s="10"/>
+      <c r="BH24" s="10"/>
+      <c r="BI24" s="10"/>
+      <c r="BJ24" s="10"/>
+      <c r="BK24" s="10"/>
+      <c r="BL24" s="10"/>
+      <c r="BM24" s="10"/>
+      <c r="BN24" s="10"/>
+      <c r="BO24" s="10"/>
+      <c r="BP24" s="10"/>
+      <c r="BQ24" s="10"/>
+      <c r="BR24" s="10"/>
+      <c r="BS24" s="10"/>
+      <c r="BT24" s="10"/>
+      <c r="BU24" s="10"/>
+      <c r="BV24" s="10"/>
+    </row>
+    <row r="28" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4">
+        <v>8</v>
+      </c>
+      <c r="D29" s="4">
+        <v>12</v>
+      </c>
+      <c r="E29" s="4">
+        <v>20</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="4">
+        <v>15</v>
+      </c>
+      <c r="C30" s="4">
+        <v>7</v>
+      </c>
+      <c r="D30" s="4">
+        <v>26</v>
+      </c>
+      <c r="E30" s="4">
+        <v>10</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P33" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="12">
+        <v>1</v>
+      </c>
+      <c r="R33" s="12">
+        <v>2</v>
+      </c>
+      <c r="S33" s="12">
+        <v>3</v>
+      </c>
+      <c r="T33" s="12">
+        <v>4</v>
+      </c>
+      <c r="U33" s="12">
+        <v>5</v>
+      </c>
+      <c r="V33" s="12">
+        <v>6</v>
+      </c>
+      <c r="W33" s="12">
+        <v>7</v>
+      </c>
+      <c r="X33" s="12">
+        <v>8</v>
+      </c>
+      <c r="Y33" s="12">
+        <v>9</v>
+      </c>
+      <c r="Z33" s="12">
+        <v>10</v>
+      </c>
+      <c r="AA33" s="12">
+        <v>11</v>
+      </c>
+      <c r="AB33" s="12">
+        <v>12</v>
+      </c>
+      <c r="AC33" s="12">
+        <v>13</v>
+      </c>
+      <c r="AD33" s="12">
+        <v>14</v>
+      </c>
+      <c r="AE33" s="12">
+        <v>15</v>
+      </c>
+      <c r="AF33" s="12">
+        <v>16</v>
+      </c>
+      <c r="AG33" s="12">
+        <v>17</v>
+      </c>
+      <c r="AH33" s="12">
+        <v>18</v>
+      </c>
+      <c r="AI33" s="12">
+        <v>19</v>
+      </c>
+      <c r="AJ33" s="12">
+        <v>20</v>
+      </c>
+      <c r="AK33" s="12">
+        <v>21</v>
+      </c>
+      <c r="AL33" s="12">
+        <v>22</v>
+      </c>
+      <c r="AM33" s="12">
+        <v>23</v>
+      </c>
+      <c r="AN33" s="12">
+        <v>24</v>
+      </c>
+      <c r="AO33" s="12">
+        <v>25</v>
+      </c>
+      <c r="AP33" s="12">
+        <v>26</v>
+      </c>
+      <c r="AQ33" s="12">
+        <v>27</v>
+      </c>
+      <c r="AR33" s="12">
+        <v>28</v>
+      </c>
+      <c r="AS33" s="12">
+        <v>29</v>
+      </c>
+      <c r="AT33" s="12">
+        <v>30</v>
+      </c>
+      <c r="AU33" s="12">
+        <v>31</v>
+      </c>
+      <c r="AV33" s="12">
+        <v>32</v>
+      </c>
+      <c r="AW33" s="12">
+        <v>33</v>
+      </c>
+      <c r="AX33" s="12">
+        <v>34</v>
+      </c>
+      <c r="AY33" s="12">
+        <v>35</v>
+      </c>
+      <c r="AZ33" s="12">
+        <v>36</v>
+      </c>
+      <c r="BA33" s="12">
+        <v>37</v>
+      </c>
+      <c r="BB33" s="12">
+        <v>38</v>
+      </c>
+      <c r="BC33" s="12">
+        <v>39</v>
+      </c>
+      <c r="BD33" s="12">
+        <v>40</v>
+      </c>
+      <c r="BE33" s="12">
+        <v>41</v>
+      </c>
+      <c r="BF33" s="12">
+        <v>42</v>
+      </c>
+      <c r="BG33" s="12">
+        <v>43</v>
+      </c>
+      <c r="BH33" s="12">
+        <v>44</v>
+      </c>
+      <c r="BI33" s="12">
+        <v>45</v>
+      </c>
+      <c r="BJ33" s="12">
+        <v>46</v>
+      </c>
+      <c r="BK33" s="12">
+        <v>47</v>
+      </c>
+      <c r="BL33" s="12">
+        <v>48</v>
+      </c>
+      <c r="BM33" s="12">
+        <v>49</v>
+      </c>
+      <c r="BN33" s="12">
+        <v>50</v>
+      </c>
+      <c r="BO33" s="12">
+        <v>51</v>
+      </c>
+      <c r="BP33" s="12">
+        <v>52</v>
+      </c>
+      <c r="BQ33" s="12">
+        <v>53</v>
+      </c>
+      <c r="BR33" s="12">
+        <v>54</v>
+      </c>
+      <c r="BS33" s="12">
+        <v>55</v>
+      </c>
+      <c r="BT33" s="12">
+        <v>56</v>
+      </c>
+      <c r="BU33" s="12">
+        <v>57</v>
+      </c>
+      <c r="BV33" s="12">
+        <v>58</v>
+      </c>
+      <c r="BW33" s="12">
+        <v>59</v>
+      </c>
+      <c r="BX33" s="12">
+        <v>60</v>
+      </c>
+      <c r="BY33" s="12">
+        <v>61</v>
+      </c>
+      <c r="BZ33" s="12">
+        <v>62</v>
+      </c>
+      <c r="CA33" s="12">
+        <v>63</v>
+      </c>
+      <c r="CB33" s="12">
+        <v>64</v>
+      </c>
+      <c r="CC33" s="12">
+        <v>65</v>
+      </c>
+      <c r="CD33" s="12">
+        <v>66</v>
+      </c>
+      <c r="CE33" s="12">
+        <v>67</v>
+      </c>
+      <c r="CF33" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4">
+        <v>15</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>10</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>5</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="19"/>
+      <c r="AI34" s="19"/>
+      <c r="AJ34" s="19"/>
+      <c r="AK34" s="19"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="1"/>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="1"/>
+      <c r="BM34" s="1"/>
+      <c r="BN34" s="1"/>
+      <c r="BO34" s="1"/>
+      <c r="BP34" s="1"/>
+      <c r="BQ34" s="1"/>
+      <c r="BR34" s="1"/>
+      <c r="BS34" s="1"/>
+      <c r="BT34" s="1"/>
+      <c r="BU34" s="1"/>
+      <c r="BV34" s="1"/>
+      <c r="BW34" s="1"/>
+      <c r="BX34" s="12"/>
+      <c r="BY34" s="12"/>
+      <c r="BZ34" s="12"/>
+      <c r="CA34" s="12"/>
+      <c r="CB34" s="12"/>
+      <c r="CC34" s="12"/>
+      <c r="CD34" s="12"/>
+      <c r="CE34" s="12"/>
+      <c r="CF34" s="12"/>
+    </row>
+    <row r="35" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="4">
+        <v>8</v>
+      </c>
+      <c r="C35" s="4">
+        <v>7</v>
+      </c>
+      <c r="D35" s="4">
+        <v>10</v>
+      </c>
+      <c r="E35" s="4">
+        <v>17</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="19"/>
+      <c r="AF35" s="19"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="1"/>
+      <c r="BI35" s="1"/>
+      <c r="BJ35" s="1"/>
+      <c r="BK35" s="1"/>
+      <c r="BL35" s="1"/>
+      <c r="BM35" s="1"/>
+      <c r="BN35" s="1"/>
+      <c r="BO35" s="1"/>
+      <c r="BP35" s="1"/>
+      <c r="BQ35" s="1"/>
+      <c r="BR35" s="1"/>
+      <c r="BS35" s="1"/>
+      <c r="BT35" s="1"/>
+      <c r="BU35" s="1"/>
+      <c r="BV35" s="1"/>
+      <c r="BW35" s="1"/>
+      <c r="BX35" s="12"/>
+      <c r="BY35" s="12"/>
+      <c r="BZ35" s="12"/>
+      <c r="CA35" s="12"/>
+      <c r="CB35" s="12"/>
+      <c r="CC35" s="12"/>
+      <c r="CD35" s="12"/>
+      <c r="CE35" s="12"/>
+      <c r="CF35" s="12"/>
+    </row>
+    <row r="36" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="4">
+        <v>5</v>
+      </c>
+      <c r="D36" s="4">
+        <v>17</v>
+      </c>
+      <c r="E36" s="4">
+        <v>22</v>
+      </c>
+      <c r="F36" s="4">
+        <v>7</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="23"/>
+      <c r="AD36" s="23"/>
+      <c r="AE36" s="23"/>
+      <c r="AF36" s="23"/>
+      <c r="AG36" s="23"/>
+      <c r="AH36" s="23"/>
+      <c r="AI36" s="23"/>
+      <c r="AJ36" s="23"/>
+      <c r="AK36" s="23"/>
+      <c r="AL36" s="19"/>
+      <c r="AM36" s="19"/>
+      <c r="AN36" s="19"/>
+      <c r="AO36" s="19"/>
+      <c r="AP36" s="19"/>
+      <c r="AQ36" s="19"/>
+      <c r="AR36" s="19"/>
+      <c r="AS36" s="19"/>
+      <c r="AT36" s="19"/>
+      <c r="AU36" s="19"/>
+      <c r="AV36" s="23"/>
+      <c r="AW36" s="23"/>
+      <c r="AX36" s="23"/>
+      <c r="AY36" s="23"/>
+      <c r="AZ36" s="23"/>
+      <c r="BA36" s="23"/>
+      <c r="BB36" s="23"/>
+      <c r="BC36" s="23"/>
+      <c r="BD36" s="23"/>
+      <c r="BE36" s="23"/>
+      <c r="BF36" s="19"/>
+      <c r="BG36" s="19"/>
+      <c r="BH36" s="19"/>
+      <c r="BI36" s="19"/>
+      <c r="BJ36" s="19"/>
+      <c r="BK36" s="19"/>
+      <c r="BL36" s="19"/>
+      <c r="BM36" s="19"/>
+      <c r="BN36" s="19"/>
+      <c r="BO36" s="19"/>
+      <c r="BP36" s="19"/>
+      <c r="BQ36" s="19"/>
+      <c r="BR36" s="19"/>
+      <c r="BS36" s="19"/>
+      <c r="BT36" s="19"/>
+      <c r="BU36" s="19"/>
+      <c r="BV36" s="1"/>
+      <c r="BW36" s="1"/>
+      <c r="BX36" s="12"/>
+      <c r="BY36" s="12"/>
+      <c r="BZ36" s="12"/>
+      <c r="CA36" s="12"/>
+      <c r="CB36" s="12"/>
+      <c r="CC36" s="12"/>
+      <c r="CD36" s="12"/>
+      <c r="CE36" s="12"/>
+      <c r="CF36" s="12"/>
+    </row>
+    <row r="37" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="4">
+        <v>12</v>
+      </c>
+      <c r="C37" s="4">
+        <v>26</v>
+      </c>
+      <c r="D37" s="4">
+        <v>22</v>
+      </c>
+      <c r="E37" s="4">
+        <v>32</v>
+      </c>
+      <c r="F37" s="4">
+        <v>10</v>
+      </c>
+      <c r="G37" s="4">
+        <v>16</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="23"/>
+      <c r="AK37" s="23"/>
+      <c r="AL37" s="23"/>
+      <c r="AM37" s="23"/>
+      <c r="AN37" s="23"/>
+      <c r="AO37" s="23"/>
+      <c r="AP37" s="23"/>
+      <c r="AQ37" s="23"/>
+      <c r="AR37" s="23"/>
+      <c r="AS37" s="23"/>
+      <c r="AT37" s="23"/>
+      <c r="AU37" s="23"/>
+      <c r="AV37" s="19"/>
+      <c r="AW37" s="19"/>
+      <c r="AX37" s="19"/>
+      <c r="AY37" s="19"/>
+      <c r="AZ37" s="19"/>
+      <c r="BA37" s="19"/>
+      <c r="BB37" s="19"/>
+      <c r="BC37" s="19"/>
+      <c r="BD37" s="19"/>
+      <c r="BE37" s="19"/>
+      <c r="BF37" s="1"/>
+      <c r="BG37" s="1"/>
+      <c r="BH37" s="1"/>
+      <c r="BI37" s="1"/>
+      <c r="BJ37" s="1"/>
+      <c r="BK37" s="1"/>
+      <c r="BL37" s="1"/>
+      <c r="BM37" s="1"/>
+      <c r="BN37" s="1"/>
+      <c r="BO37" s="1"/>
+      <c r="BP37" s="1"/>
+      <c r="BQ37" s="1"/>
+      <c r="BR37" s="1"/>
+      <c r="BS37" s="1"/>
+      <c r="BT37" s="1"/>
+      <c r="BU37" s="1"/>
+      <c r="BV37" s="1"/>
+      <c r="BW37" s="1"/>
+      <c r="BX37" s="12"/>
+      <c r="BY37" s="12"/>
+      <c r="BZ37" s="12"/>
+      <c r="CA37" s="12"/>
+      <c r="CB37" s="12"/>
+      <c r="CC37" s="12"/>
+      <c r="CD37" s="12"/>
+      <c r="CE37" s="12"/>
+      <c r="CF37" s="12"/>
+    </row>
+    <row r="38" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="4">
+        <v>20</v>
+      </c>
+      <c r="C38" s="4">
+        <v>10</v>
+      </c>
+      <c r="D38" s="4">
+        <v>32</v>
+      </c>
+      <c r="E38" s="4">
+        <v>42</v>
+      </c>
+      <c r="F38" s="4">
+        <v>12</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1"/>
+      <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="1"/>
+      <c r="BD38" s="1"/>
+      <c r="BE38" s="1"/>
+      <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
+      <c r="BH38" s="1"/>
+      <c r="BI38" s="1"/>
+      <c r="BJ38" s="1"/>
+      <c r="BK38" s="1"/>
+      <c r="BL38" s="1"/>
+      <c r="BM38" s="1"/>
+      <c r="BN38" s="1"/>
+      <c r="BO38" s="1"/>
+      <c r="BP38" s="1"/>
+      <c r="BQ38" s="1"/>
+      <c r="BR38" s="1"/>
+      <c r="BS38" s="1"/>
+      <c r="BT38" s="1"/>
+      <c r="BU38" s="1"/>
+      <c r="BV38" s="1"/>
+      <c r="BW38" s="1"/>
+    </row>
+    <row r="39" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="4">
+        <v>16</v>
+      </c>
+      <c r="D39" s="4">
+        <v>42</v>
+      </c>
+      <c r="E39" s="4">
+        <v>52</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
+        <v>6</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="4">
+        <v>6</v>
+      </c>
+      <c r="D40" s="4">
+        <v>52</v>
+      </c>
+      <c r="E40" s="4">
+        <v>58</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6">
+        <v>58</v>
+      </c>
+      <c r="F41" s="6">
+        <v>7.75</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
